--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -1,84 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\PyCharmMiscProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54AC30-4D33-483A-9D92-89361AE19A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>DrawDate</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Consolation</t>
-  </si>
-  <si>
-    <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
-  </si>
-  <si>
-    <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
-  </si>
-  <si>
-    <t>Sun (2025-10-19)</t>
-  </si>
-  <si>
-    <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
-  </si>
-  <si>
-    <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
-  </si>
-  <si>
-    <t>Wed (2025-10-22)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,22 +56,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,78 +418,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="2" max="4"/>
+    <col width="46" bestFit="1" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DrawDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Starter</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consolation</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sun (2025-10-19)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5548</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>8729</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5928</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wed (2025-10-22)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>8612</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6143</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2503</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sat (2025-10-25)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6896</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0898</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1375 4167 4438 4931 7001 7529 8290 8440 9125 9464</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1254 1970 2085 3759 4406 5439 6262 6378 6853 8998</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -1,38 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Dropbox\- SG Pools\sg-4d-json-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB86026-3A15-4AA3-AC02-FE09B2FFE1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>DrawDate</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Consolation</t>
+  </si>
+  <si>
+    <t>Sun (2025-10-19)</t>
+  </si>
+  <si>
+    <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
+  </si>
+  <si>
+    <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
+  </si>
+  <si>
+    <t>Wed (2025-10-22)</t>
+  </si>
+  <si>
+    <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
+  </si>
+  <si>
+    <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
+  </si>
+  <si>
+    <t>Sat (2025-10-25)</t>
+  </si>
+  <si>
+    <t>8585</t>
+  </si>
+  <si>
+    <t>6896</t>
+  </si>
+  <si>
+    <t>0898</t>
+  </si>
+  <si>
+    <t>1375 4167 4438 4931 7001 7529 8290 8440 9125 9464</t>
+  </si>
+  <si>
+    <t>1254 1970 2085 3759 4406 5439 6262 6378 6853 8998</t>
+  </si>
+  <si>
+    <t>Sun (2025-10-26)</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>4178</t>
+  </si>
+  <si>
+    <t>9639</t>
+  </si>
+  <si>
+    <t>0848 1933 4830 6247 7074 7640 7683 7984 8415 9470</t>
+  </si>
+  <si>
+    <t>0962 1296 3818 5200 6388 6399 7742 7769 7829 8156</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,81 +138,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,138 +441,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5" bestFit="1" customWidth="1" min="2" max="4"/>
-    <col width="46" bestFit="1" customWidth="1" min="5" max="6"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DrawDate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Starter</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Consolation</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sun (2025-10-19)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>5548</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8729</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5928</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
-        </is>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wed (2025-10-22)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>8612</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6143</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2503</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
-        </is>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sat (2025-10-25)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8585</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6896</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0898</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1375 4167 4438 4931 7001 7529 8290 8440 9125 9464</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1254 1970 2085 3759 4406 5439 6262 6378 6853 8998</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -1,120 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Dropbox\- SG Pools\sg-4d-json-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB86026-3A15-4AA3-AC02-FE09B2FFE1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>DrawDate</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Consolation</t>
-  </si>
-  <si>
-    <t>Sun (2025-10-19)</t>
-  </si>
-  <si>
-    <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
-  </si>
-  <si>
-    <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
-  </si>
-  <si>
-    <t>Wed (2025-10-22)</t>
-  </si>
-  <si>
-    <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
-  </si>
-  <si>
-    <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
-  </si>
-  <si>
-    <t>Sat (2025-10-25)</t>
-  </si>
-  <si>
-    <t>8585</t>
-  </si>
-  <si>
-    <t>6896</t>
-  </si>
-  <si>
-    <t>0898</t>
-  </si>
-  <si>
-    <t>1375 4167 4438 4931 7001 7529 8290 8440 9125 9464</t>
-  </si>
-  <si>
-    <t>1254 1970 2085 3759 4406 5439 6262 6378 6853 8998</t>
-  </si>
-  <si>
-    <t>Sun (2025-10-26)</t>
-  </si>
-  <si>
-    <t>0316</t>
-  </si>
-  <si>
-    <t>4178</t>
-  </si>
-  <si>
-    <t>9639</t>
-  </si>
-  <si>
-    <t>0848 1933 4830 6247 7074 7640 7683 7984 8415 9470</t>
-  </si>
-  <si>
-    <t>0962 1296 3818 5200 6388 6399 7742 7769 7829 8156</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,22 +56,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,118 +418,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="2" max="4"/>
+    <col width="46" bestFit="1" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DrawDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Starter</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consolation</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sun (2025-10-19)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5548</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>8729</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5928</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1684 1869 3444 3582 4691 6942 8212 8472 8791 9398</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0640 2148 2702 3130 3424 4037 6944 7253 8678 9139</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wed (2025-10-22)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>8612</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6143</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2503</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0223 0958 1438 3757 5241 5349 6532 7844 9618 9661</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0466 0640 4134 5050 6088 7323 7852 8274 8492 9664</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sat (2025-10-25)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6896</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0898</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1375 4167 4438 4931 7001 7529 8290 8440 9125 9464</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1254 1970 2085 3759 4406 5439 6262 6378 6853 8998</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sun (2025-10-26)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9639</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0848 1933 4830 6247 7074 7640 7683 7984 8415 9470</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0962 1296 3818 5200 6388 6399 7742 7769 7829 8156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sat (2025-11-01)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6349</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8483</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0055 1305 1313 2873 3170 3605 6544 6935 9121 9623</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0240 0666 2483 4559 4652 5216 7384 7462 9218 9662</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -616,6 +616,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sun (2025-11-02)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0174 0593 1512 1880 3225 3794 7498 8969 9741 9788</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0563 0637 2654 5537 6570 7067 7154 7289 8277 8621</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -648,6 +648,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wed (2025-11-05)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6443</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0851 1126 1441 1737 4295 4700 4987 6012 7459 9917</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0103 0309 0344 1491 2323 2375 2947 2997 4840 8837</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -680,6 +680,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sat (2025-11-08)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0536</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0086 0874 1866 3240 6309 6425 6479 7497 9267 9995</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0547 0703 2634 4389 4767 4965 6069 6398 7817 8763</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -712,6 +712,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sun (2025-11-09)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6827</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0013 0919 1843 5111 5448 6567 6889 7176 8035 9649</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0389 0735 1413 2238 4156 4847 5242 9274 9374 9944</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -744,6 +744,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wed (2025-11-12)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0603 1786 3746 6852 7727 8023 8519 8726 8813 9364</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0329 2645 3015 3414 3888 4226 4335 4921 7747 8869</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -776,6 +776,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sat (2025-11-15)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9781</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0781</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1021 2119 4606 5459 6276 7206 7642 8234 9635 9897</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0544 0709 0799 1824 3765 6952 8694 8817 8951 9577</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -808,6 +808,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sun (2025-11-16)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7295</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6438</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1803 2867 2946 3263 4486 6618 7196 7561 7566 8307</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0138 1785 2390 3673 4834 5170 5762 6116 7906 9290</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -840,6 +840,38 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wed (2025-11-19)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1551</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2131 2316 2335 3137 3262 4463 4648 5935 7783 8730</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1018 1474 2198 3011 6542 7733 8116 8422 8716 9908</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -933,6 +933,38 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sun (2025-11-23)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7850</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6276</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0520 2315 3723 4321 5001 5329 5380 5381 7849 8657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2993 3756 3785 3906 4556 4665 4782 4790 7295 7405</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -965,6 +965,38 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Wed (2025-11-26)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5326</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0094 0578 0996 2636 4986 5250 5907 5935 6711 8675</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0939 4274 4307 6279 7839 8037 8225 8849 8968 9601</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -997,6 +997,38 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sat (2025-11-29)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6713</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1138 1451 2868 3446 3816 4748 8329 8340 8347 8776</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2611 4417 5138 5309 7373 7778 8581 9014 9746 9893</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1029,6 +1029,38 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sun (2025-11-30)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4218</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9245</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1207 1731 2286 2642 2686 4307 4987 6231 7490 8453</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0132 1287 1632 5096 5238 6029 6236 6414 7190 8301</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1061,6 +1061,38 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wed (2025-12-03)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9746</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0631 1782 2639 2831 5018 5679 6543 6842 9325 9968</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0453 0703 1857 4805 5587 6005 8570 8914 8971 9708</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1093,6 +1093,38 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sat (2025-12-06)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0043 3875 4748 6877 7273 8373 8807 8855 8968 9175</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0711 1447 1982 3545 5764 5973 6437 7210 8735 9702</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1125,6 +1125,38 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sun (2025-12-07)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7370</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0788 0995 4095 4141 4928 5556 5874 6883 8494 8804</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2032 3456 5495 6576 7161 7479 7937 8155 9520 9808</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1157,6 +1157,38 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Wed (2025-12-10)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0320</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2319 3782 3912 5652 6763 7204 8410 9019 9187 9793</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0610 0709 5029 5896 6168 6531 6776 9137 9349 9740</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1189,6 +1189,38 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sat (2025-12-13)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7191</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2060 3462 4944 5013 5259 6875 7659 8303 8898 9480</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0274 0404 0649 0932 1586 1600 4964 5388 7453 8147</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1221,6 +1221,38 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sun (2025-12-14)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7688</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2661 3079 3115 4136 4917 6091 6407 7364 8349 9780</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1055 2300 4417 5334 5675 6254 6494 6916 7259 8914</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1253,6 +1253,38 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Wed (2025-12-17)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8391</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2544 2824 4562 6642 7197 7913 8185 8207 8305 9892</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1194 1481 2476 3180 4232 5316 5925 6493 6896 8281</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1285,6 +1285,38 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sat (2025-12-20)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7435</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0825</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0093 0147 3818 3880 4052 5321 5432 5945 7065 8101</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2177 3103 3169 3626 3997 4853 6098 6917 7233 7273</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1317,6 +1317,38 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sun (2025-12-21)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1521 2763 3098 3970 4090 4474 5027 6891 8076 9987</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2448 2870 3331 5728 6851 7092 7198 7522 8518 9907</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1349,6 +1349,38 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Wed (2025-12-24)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9395</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9492</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8002</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0791 0865 2850 3506 4939 8220 8301 8312 9169 9473</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0927 1156 1233 2731 3766 4199 5962 8319 9210 9274</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1381,6 +1381,38 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sat (2025-12-27)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8780</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2581 2935 3191 6155 6485 7650 8132 8612 8718 9751</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0174 1271 1352 2226 2389 2534 2573 6096 6997 9815</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1413,6 +1413,38 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sun (2025-12-28)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9507</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9138</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9591</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0808 3093 3897 3964 5219 6913 7659 8278 9454 9617</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0530 1397 1709 1751 1935 3103 4365 5231 7789 8512</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1445,6 +1445,38 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wed (2025-12-31)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0220 0498 1445 2694 3049 4834 5675 6832 6837 9703</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1989 2634 2766 2814 3835 4691 4781 5148 5437 7773</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1477,6 +1477,38 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sat (2026-01-03)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6215</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4000 5712 7003 7303 7326 7900 8576 8653 8741 9469</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0171 1284 3640 5248 6183 6591 6824 7649 8183 9499</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1509,6 +1509,38 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sun (2026-01-04)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7713</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9590</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0594 1507 1543 4423 5853 6374 6873 7811 9398 9862</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0893 1749 2226 3589 4698 6464 7461 9066 9114 9270</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1541,6 +1541,38 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wed (2026-01-07)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4807</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0680 1374 1877 2788 7352 7971 9084 9246 9424 9599</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2748 3384 3930 4376 5074 5209 6906 7298 7990 9802</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1573,6 +1573,38 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sat (2026-01-10)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0938</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0946 3775 4265 4337 5262 5479 5864 7786 9330 9825</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0519 1556 1594 5327 5923 6437 6447 6463 8172 9468</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1605,6 +1605,38 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sun (2026-01-11)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0542</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6102</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0322 0428 0763 1170 2055 5272 6287 6585 8930 9275</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2521 2587 2847 3066 4097 7583 8375 8546 9165 9196</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1637,6 +1637,38 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Wed (2026-01-14)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0305</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5745</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0163 0837 1410 2669 2695 3412 4870 9107 9570 9722</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0091 0763 2313 2914 3297 4646 7131 7310 8781 9566</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1669,6 +1669,38 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sat (2026-01-17)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2694</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2176 3267 4737 5552 5858 5919 6016 7978 8143 9945</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0536 0617 2401 3415 4785 4790 6533 8476 8722 9005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1701,6 +1701,38 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sun (2026-01-18)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5896</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4327</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0267 1152 1190 2645 2751 4695 5471 8295 8822 9422</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0348 1557 2362 3527 5316 5665 6399 6586 7017 8466</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1733,6 +1733,38 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Wed (2026-01-21)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0452</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6502</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8309</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0800 0849 1358 2336 4308 5994 6431 8599 9664 9840</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0498 0766 1145 1169 4613 5088 6914 8540 9734 9911</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1765,6 +1765,38 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sat (2026-01-24)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7295</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8557</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0991</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0497 0712 2018 2243 2450 4126 4516 4570 5071 9072</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0055 1872 3177 5379 6437 7133 7530 8184 8328 9735</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1797,6 +1797,38 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sun (2026-01-25)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3634</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2772 3296 3596 3963 4594 4734 4960 5259 5968 6585</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0132 0739 1616 1788 2629 2678 6741 7739 9042 9185</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1829,6 +1829,38 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Wed (2026-01-28)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9683</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2287</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2081</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0617 1179 2808 4724 4932 5337 5514 5919 6193 6388</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1156 1623 3157 3283 3481 4885 5512 5739 6153 6233</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1861,6 +1861,38 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sat (2026-01-31)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6555</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0249 0285 2225 2628 3631 4235 6547 6661 8293 9354</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3717 4115 4439 5336 6334 6399 6870 7138 9339 9813</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1893,6 +1893,38 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sun (2026-02-01)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7970</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0896</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0553</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1818 2021 3015 4271 4932 6175 8533 9134 9406 9463</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1931 1952 2144 3346 4713 6872 6946 8339 8658 9806</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1925,6 +1925,38 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Wed (2026-02-04)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6119</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5301</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0141 1167 1206 1308 3886 4390 4890 5407 8328 8899</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0403 0681 0814 2599 4064 6258 7358 8293 8397 9989</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1957,6 +1957,38 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sat (2026-02-07)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1516</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7919</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0743 1239 3077 3246 4394 5148 5232 7734 8070 9023</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0001 0979 1259 2206 3038 4327 6510 6852 7464 7505</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1989,6 +1989,38 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sun (2026-02-08)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0499</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0549 0720 1015 1949 3329 5154 5428 6868 8532 9052</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2798 3092 3160 3516 3889 4593 5162 6449 7143 7519</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2021,6 +2021,38 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Wed (2026-02-11)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7907</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2758</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0289 0590 2947 3579 4505 4730 6961 7206 8057 9002</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0288 0488 1875 1933 2097 2611 5434 7084 7156 9624</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2053,6 +2053,38 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sat (2026-02-14)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2260 3557 4622 5836 6085 7391 7885 7906 9403 9526</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2191 2345 3760 3761 5221 5574 5668 7802 9228 9419</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2085,6 +2085,38 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sun (2026-02-15)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4374</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9747</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0747 3029 3168 3386 5071 5410 7525 7719 8008 8640</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0666 1322 2304 2378 3071 3830 7371 7748 8090 9830</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2117,6 +2117,38 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Wed (2026-02-18)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9591</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1325 2632 3185 4698 4953 5273 6083 6437 6470 7708</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0013 0410 1445 2208 4030 4405 5308 6169 8352 9713</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2149,6 +2149,38 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sat (2026-02-21)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5888</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8468</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0905 2201 2639 6086 6141 7011 7269 8174 8975 9759</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0674 0891 2191 2681 3449 4271 5815 6044 6467 9011</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4d_results_all.xlsx
+++ b/4d_results_all.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -2181,6 +2181,38 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sun (2026-02-22)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7215</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0041 1203 1695 3950 6171 6410 6540 7219 7440 8236</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1376 1790 2634 3301 4698 5217 5685 7875 9419 9984</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
